--- a/Ports.xlsx
+++ b/Ports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Sidecar Ports</t>
   </si>
@@ -72,18 +72,6 @@
     <t>SB</t>
   </si>
   <si>
-    <t>SB#</t>
-  </si>
-  <si>
-    <t>Solenoid Breakout #</t>
-  </si>
-  <si>
-    <t>AB#</t>
-  </si>
-  <si>
-    <t>Analog Breakout #</t>
-  </si>
-  <si>
     <t>PWM1</t>
   </si>
   <si>
@@ -94,15 +82,6 @@
   </si>
   <si>
     <t>PWM4</t>
-  </si>
-  <si>
-    <t>PWM5</t>
-  </si>
-  <si>
-    <t>PWM6</t>
-  </si>
-  <si>
-    <t>PWM7</t>
   </si>
   <si>
     <t>Module</t>
@@ -162,9 +141,6 @@
     <t>cRIO Ports</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>* Sensor #</t>
   </si>
   <si>
@@ -187,6 +163,57 @@
   </si>
   <si>
     <t>SB1</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Solenoid Breakout</t>
+  </si>
+  <si>
+    <t>Sidecar</t>
+  </si>
+  <si>
+    <t>Analog Breakout</t>
+  </si>
+  <si>
+    <t>Sp1</t>
+  </si>
+  <si>
+    <t>Sp2</t>
+  </si>
+  <si>
+    <t>Sp3</t>
+  </si>
+  <si>
+    <t>REL1</t>
+  </si>
+  <si>
+    <t>REL2</t>
+  </si>
+  <si>
+    <t>REL3</t>
+  </si>
+  <si>
+    <t>Power Ports</t>
+  </si>
+  <si>
+    <t>REL#</t>
+  </si>
+  <si>
+    <t>Relay #</t>
+  </si>
+  <si>
+    <t>SN#</t>
+  </si>
+  <si>
+    <t>Solenoid #</t>
+  </si>
+  <si>
+    <t>SN1</t>
+  </si>
+  <si>
+    <t>SN2</t>
   </si>
 </sst>
 </file>
@@ -547,26 +574,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T363"/>
+  <dimension ref="A1:W363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,30 +607,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -613,35 +652,40 @@
         <v>3</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
+      <c r="R2" s="4"/>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -658,32 +702,37 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
-        <v>35</v>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>37</v>
+      <c r="Q3" s="4" t="s">
+        <v>30</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -699,33 +748,35 @@
         <v>5</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
-        <v>15</v>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -741,38 +792,39 @@
         <v>6</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>49</v>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
-        <v>39</v>
+      <c r="T5" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -782,41 +834,44 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
-      <c r="R6" s="4">
-        <v>2</v>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -826,35 +881,44 @@
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -864,26 +928,39 @@
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="4">
+        <v>3</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -891,10 +968,10 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -908,8 +985,11 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -920,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -934,8 +1014,11 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -956,8 +1039,11 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -978,8 +1064,11 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1000,8 +1089,11 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1022,8 +1114,11 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1044,8 +1139,11 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1066,8 +1164,11 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1088,8 +1189,11 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1110,8 +1214,11 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1132,8 +1239,11 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1154,8 +1264,11 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1176,8 +1289,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1198,8 +1314,11 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1220,8 +1339,11 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1242,8 +1364,11 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1264,8 +1389,11 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1286,8 +1414,11 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1308,8 +1439,11 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1330,8 +1464,11 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1352,8 +1489,11 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1374,8 +1514,11 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1396,8 +1539,11 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1418,8 +1564,11 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1440,8 +1589,11 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1462,8 +1614,11 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1484,8 +1639,11 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1506,8 +1664,11 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1528,8 +1689,11 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1550,8 +1714,11 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1572,8 +1739,11 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1594,8 +1764,11 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1616,8 +1789,11 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1638,8 +1814,11 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1660,8 +1839,11 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1682,8 +1864,11 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1704,8 +1889,11 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1726,8 +1914,11 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1748,8 +1939,11 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1770,8 +1964,11 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1792,8 +1989,11 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1814,8 +2014,11 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1836,8 +2039,11 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1858,8 +2064,11 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1880,8 +2089,11 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1902,8 +2114,11 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1924,8 +2139,11 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1946,8 +2164,11 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1968,8 +2189,11 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1990,8 +2214,11 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2012,8 +2239,11 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2034,8 +2264,11 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2056,8 +2289,11 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2078,8 +2314,11 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2100,8 +2339,11 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2122,8 +2364,11 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2144,8 +2389,11 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2166,8 +2414,11 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2188,8 +2439,11 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2210,8 +2464,11 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2232,8 +2489,11 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2254,8 +2514,11 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2276,8 +2539,11 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2298,8 +2564,11 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2320,8 +2589,11 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2342,8 +2614,11 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2364,8 +2639,11 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2386,8 +2664,11 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2408,8 +2689,11 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2430,8 +2714,11 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2452,8 +2739,11 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2474,8 +2764,11 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2496,8 +2789,11 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2518,8 +2814,11 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2540,8 +2839,11 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2562,8 +2864,11 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2584,8 +2889,11 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2606,8 +2914,11 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2628,8 +2939,11 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2650,8 +2964,11 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2672,8 +2989,11 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2694,8 +3014,11 @@
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2716,8 +3039,11 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2738,8 +3064,11 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2760,8 +3089,11 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2782,8 +3114,11 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2804,8 +3139,11 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2826,8 +3164,11 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2848,8 +3189,11 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2870,8 +3214,11 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2892,8 +3239,11 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2914,8 +3264,11 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2936,8 +3289,11 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2958,8 +3314,11 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2980,8 +3339,11 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3002,8 +3364,11 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3024,8 +3389,11 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3046,8 +3414,11 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3068,8 +3439,11 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3090,8 +3464,11 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3112,8 +3489,11 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3134,8 +3514,11 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3156,8 +3539,11 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3178,8 +3564,11 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3200,8 +3589,11 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3222,8 +3614,11 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3244,8 +3639,11 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3266,8 +3664,11 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3288,8 +3689,11 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3310,8 +3714,11 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3332,8 +3739,11 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3354,8 +3764,11 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3376,8 +3789,11 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3398,8 +3814,11 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3420,8 +3839,11 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3442,8 +3864,11 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3464,8 +3889,11 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3486,8 +3914,11 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3508,8 +3939,11 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3530,8 +3964,11 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3552,8 +3989,11 @@
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3574,8 +4014,11 @@
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3596,8 +4039,11 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3618,8 +4064,11 @@
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3640,8 +4089,11 @@
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3662,8 +4114,11 @@
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3684,8 +4139,11 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3706,8 +4164,11 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3728,8 +4189,11 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3750,8 +4214,11 @@
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
       <c r="T138" s="4"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3772,8 +4239,11 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3794,8 +4264,11 @@
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3816,8 +4289,11 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3838,8 +4314,11 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3860,8 +4339,11 @@
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3882,8 +4364,11 @@
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3904,8 +4389,11 @@
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3926,8 +4414,11 @@
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3948,8 +4439,11 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3970,8 +4464,11 @@
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3992,8 +4489,11 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4014,8 +4514,11 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
       <c r="T150" s="4"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4036,8 +4539,11 @@
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
       <c r="T151" s="4"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4058,8 +4564,11 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4080,8 +4589,11 @@
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4102,8 +4614,11 @@
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4124,8 +4639,11 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4146,8 +4664,11 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4168,8 +4689,11 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4190,8 +4714,11 @@
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4212,8 +4739,11 @@
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4234,8 +4764,11 @@
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4256,8 +4789,11 @@
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4278,8 +4814,11 @@
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
       <c r="T162" s="4"/>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4300,8 +4839,11 @@
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4322,8 +4864,11 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4344,8 +4889,11 @@
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
       <c r="T165" s="4"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4366,8 +4914,11 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4388,8 +4939,11 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4410,8 +4964,11 @@
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4432,8 +4989,11 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4454,8 +5014,11 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4476,8 +5039,11 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4498,8 +5064,11 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4520,8 +5089,11 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4542,8 +5114,11 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4564,8 +5139,11 @@
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4586,8 +5164,11 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4608,8 +5189,11 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4630,8 +5214,11 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4652,8 +5239,11 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4674,8 +5264,11 @@
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4696,8 +5289,11 @@
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4718,8 +5314,11 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4740,8 +5339,11 @@
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4762,8 +5364,11 @@
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4784,8 +5389,11 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4806,8 +5414,11 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4828,8 +5439,11 @@
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4850,8 +5464,11 @@
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4872,8 +5489,11 @@
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4894,8 +5514,11 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4916,8 +5539,11 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4938,8 +5564,11 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4960,8 +5589,11 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4982,8 +5614,11 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5004,8 +5639,11 @@
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5026,8 +5664,11 @@
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5048,8 +5689,11 @@
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5070,8 +5714,11 @@
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+      <c r="W198" s="4"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5092,8 +5739,11 @@
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5114,8 +5764,11 @@
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5136,8 +5789,11 @@
       <c r="R201" s="4"/>
       <c r="S201" s="4"/>
       <c r="T201" s="4"/>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5158,8 +5814,11 @@
       <c r="R202" s="4"/>
       <c r="S202" s="4"/>
       <c r="T202" s="4"/>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5180,8 +5839,11 @@
       <c r="R203" s="4"/>
       <c r="S203" s="4"/>
       <c r="T203" s="4"/>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -5202,8 +5864,11 @@
       <c r="R204" s="4"/>
       <c r="S204" s="4"/>
       <c r="T204" s="4"/>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -5224,8 +5889,11 @@
       <c r="R205" s="4"/>
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -5246,8 +5914,11 @@
       <c r="R206" s="4"/>
       <c r="S206" s="4"/>
       <c r="T206" s="4"/>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5268,8 +5939,11 @@
       <c r="R207" s="4"/>
       <c r="S207" s="4"/>
       <c r="T207" s="4"/>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5290,8 +5964,11 @@
       <c r="R208" s="4"/>
       <c r="S208" s="4"/>
       <c r="T208" s="4"/>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -5312,8 +5989,11 @@
       <c r="R209" s="4"/>
       <c r="S209" s="4"/>
       <c r="T209" s="4"/>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5334,8 +6014,11 @@
       <c r="R210" s="4"/>
       <c r="S210" s="4"/>
       <c r="T210" s="4"/>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5356,8 +6039,11 @@
       <c r="R211" s="4"/>
       <c r="S211" s="4"/>
       <c r="T211" s="4"/>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5378,8 +6064,11 @@
       <c r="R212" s="4"/>
       <c r="S212" s="4"/>
       <c r="T212" s="4"/>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5400,8 +6089,11 @@
       <c r="R213" s="4"/>
       <c r="S213" s="4"/>
       <c r="T213" s="4"/>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5422,8 +6114,11 @@
       <c r="R214" s="4"/>
       <c r="S214" s="4"/>
       <c r="T214" s="4"/>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5444,8 +6139,11 @@
       <c r="R215" s="4"/>
       <c r="S215" s="4"/>
       <c r="T215" s="4"/>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -5466,8 +6164,11 @@
       <c r="R216" s="4"/>
       <c r="S216" s="4"/>
       <c r="T216" s="4"/>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -5488,8 +6189,11 @@
       <c r="R217" s="4"/>
       <c r="S217" s="4"/>
       <c r="T217" s="4"/>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5510,8 +6214,11 @@
       <c r="R218" s="4"/>
       <c r="S218" s="4"/>
       <c r="T218" s="4"/>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -5532,8 +6239,11 @@
       <c r="R219" s="4"/>
       <c r="S219" s="4"/>
       <c r="T219" s="4"/>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -5554,8 +6264,11 @@
       <c r="R220" s="4"/>
       <c r="S220" s="4"/>
       <c r="T220" s="4"/>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -5576,8 +6289,11 @@
       <c r="R221" s="4"/>
       <c r="S221" s="4"/>
       <c r="T221" s="4"/>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -5598,8 +6314,11 @@
       <c r="R222" s="4"/>
       <c r="S222" s="4"/>
       <c r="T222" s="4"/>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+      <c r="W222" s="4"/>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5620,8 +6339,11 @@
       <c r="R223" s="4"/>
       <c r="S223" s="4"/>
       <c r="T223" s="4"/>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+      <c r="W223" s="4"/>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -5642,8 +6364,11 @@
       <c r="R224" s="4"/>
       <c r="S224" s="4"/>
       <c r="T224" s="4"/>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+      <c r="W224" s="4"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -5664,8 +6389,11 @@
       <c r="R225" s="4"/>
       <c r="S225" s="4"/>
       <c r="T225" s="4"/>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -5686,8 +6414,11 @@
       <c r="R226" s="4"/>
       <c r="S226" s="4"/>
       <c r="T226" s="4"/>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+      <c r="W226" s="4"/>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5708,8 +6439,11 @@
       <c r="R227" s="4"/>
       <c r="S227" s="4"/>
       <c r="T227" s="4"/>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+      <c r="W227" s="4"/>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5730,8 +6464,11 @@
       <c r="R228" s="4"/>
       <c r="S228" s="4"/>
       <c r="T228" s="4"/>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+      <c r="W228" s="4"/>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5752,8 +6489,11 @@
       <c r="R229" s="4"/>
       <c r="S229" s="4"/>
       <c r="T229" s="4"/>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5774,8 +6514,11 @@
       <c r="R230" s="4"/>
       <c r="S230" s="4"/>
       <c r="T230" s="4"/>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+      <c r="W230" s="4"/>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5796,8 +6539,11 @@
       <c r="R231" s="4"/>
       <c r="S231" s="4"/>
       <c r="T231" s="4"/>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+      <c r="W231" s="4"/>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5818,8 +6564,11 @@
       <c r="R232" s="4"/>
       <c r="S232" s="4"/>
       <c r="T232" s="4"/>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+      <c r="W232" s="4"/>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5840,8 +6589,11 @@
       <c r="R233" s="4"/>
       <c r="S233" s="4"/>
       <c r="T233" s="4"/>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+      <c r="W233" s="4"/>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5862,8 +6614,11 @@
       <c r="R234" s="4"/>
       <c r="S234" s="4"/>
       <c r="T234" s="4"/>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+      <c r="W234" s="4"/>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -5884,8 +6639,11 @@
       <c r="R235" s="4"/>
       <c r="S235" s="4"/>
       <c r="T235" s="4"/>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+      <c r="W235" s="4"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -5906,8 +6664,11 @@
       <c r="R236" s="4"/>
       <c r="S236" s="4"/>
       <c r="T236" s="4"/>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+      <c r="W236" s="4"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -5928,8 +6689,11 @@
       <c r="R237" s="4"/>
       <c r="S237" s="4"/>
       <c r="T237" s="4"/>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U237" s="4"/>
+      <c r="V237" s="4"/>
+      <c r="W237" s="4"/>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5950,8 +6714,11 @@
       <c r="R238" s="4"/>
       <c r="S238" s="4"/>
       <c r="T238" s="4"/>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U238" s="4"/>
+      <c r="V238" s="4"/>
+      <c r="W238" s="4"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -5972,8 +6739,11 @@
       <c r="R239" s="4"/>
       <c r="S239" s="4"/>
       <c r="T239" s="4"/>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U239" s="4"/>
+      <c r="V239" s="4"/>
+      <c r="W239" s="4"/>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -5994,8 +6764,11 @@
       <c r="R240" s="4"/>
       <c r="S240" s="4"/>
       <c r="T240" s="4"/>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U240" s="4"/>
+      <c r="V240" s="4"/>
+      <c r="W240" s="4"/>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -6016,8 +6789,11 @@
       <c r="R241" s="4"/>
       <c r="S241" s="4"/>
       <c r="T241" s="4"/>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U241" s="4"/>
+      <c r="V241" s="4"/>
+      <c r="W241" s="4"/>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -6038,8 +6814,11 @@
       <c r="R242" s="4"/>
       <c r="S242" s="4"/>
       <c r="T242" s="4"/>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -6060,8 +6839,11 @@
       <c r="R243" s="4"/>
       <c r="S243" s="4"/>
       <c r="T243" s="4"/>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U243" s="4"/>
+      <c r="V243" s="4"/>
+      <c r="W243" s="4"/>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -6082,8 +6864,11 @@
       <c r="R244" s="4"/>
       <c r="S244" s="4"/>
       <c r="T244" s="4"/>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+      <c r="W244" s="4"/>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -6104,8 +6889,11 @@
       <c r="R245" s="4"/>
       <c r="S245" s="4"/>
       <c r="T245" s="4"/>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -6126,8 +6914,11 @@
       <c r="R246" s="4"/>
       <c r="S246" s="4"/>
       <c r="T246" s="4"/>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U246" s="4"/>
+      <c r="V246" s="4"/>
+      <c r="W246" s="4"/>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -6148,8 +6939,11 @@
       <c r="R247" s="4"/>
       <c r="S247" s="4"/>
       <c r="T247" s="4"/>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U247" s="4"/>
+      <c r="V247" s="4"/>
+      <c r="W247" s="4"/>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -6170,8 +6964,11 @@
       <c r="R248" s="4"/>
       <c r="S248" s="4"/>
       <c r="T248" s="4"/>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U248" s="4"/>
+      <c r="V248" s="4"/>
+      <c r="W248" s="4"/>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -6192,8 +6989,11 @@
       <c r="R249" s="4"/>
       <c r="S249" s="4"/>
       <c r="T249" s="4"/>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U249" s="4"/>
+      <c r="V249" s="4"/>
+      <c r="W249" s="4"/>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -6214,8 +7014,11 @@
       <c r="R250" s="4"/>
       <c r="S250" s="4"/>
       <c r="T250" s="4"/>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U250" s="4"/>
+      <c r="V250" s="4"/>
+      <c r="W250" s="4"/>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -6236,8 +7039,11 @@
       <c r="R251" s="4"/>
       <c r="S251" s="4"/>
       <c r="T251" s="4"/>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U251" s="4"/>
+      <c r="V251" s="4"/>
+      <c r="W251" s="4"/>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -6258,8 +7064,11 @@
       <c r="R252" s="4"/>
       <c r="S252" s="4"/>
       <c r="T252" s="4"/>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+      <c r="W252" s="4"/>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -6280,8 +7089,11 @@
       <c r="R253" s="4"/>
       <c r="S253" s="4"/>
       <c r="T253" s="4"/>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U253" s="4"/>
+      <c r="V253" s="4"/>
+      <c r="W253" s="4"/>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -6302,8 +7114,11 @@
       <c r="R254" s="4"/>
       <c r="S254" s="4"/>
       <c r="T254" s="4"/>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U254" s="4"/>
+      <c r="V254" s="4"/>
+      <c r="W254" s="4"/>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -6324,8 +7139,11 @@
       <c r="R255" s="4"/>
       <c r="S255" s="4"/>
       <c r="T255" s="4"/>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U255" s="4"/>
+      <c r="V255" s="4"/>
+      <c r="W255" s="4"/>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -6346,8 +7164,11 @@
       <c r="R256" s="4"/>
       <c r="S256" s="4"/>
       <c r="T256" s="4"/>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U256" s="4"/>
+      <c r="V256" s="4"/>
+      <c r="W256" s="4"/>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -6368,8 +7189,11 @@
       <c r="R257" s="4"/>
       <c r="S257" s="4"/>
       <c r="T257" s="4"/>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U257" s="4"/>
+      <c r="V257" s="4"/>
+      <c r="W257" s="4"/>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -6390,8 +7214,11 @@
       <c r="R258" s="4"/>
       <c r="S258" s="4"/>
       <c r="T258" s="4"/>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U258" s="4"/>
+      <c r="V258" s="4"/>
+      <c r="W258" s="4"/>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -6412,8 +7239,11 @@
       <c r="R259" s="4"/>
       <c r="S259" s="4"/>
       <c r="T259" s="4"/>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U259" s="4"/>
+      <c r="V259" s="4"/>
+      <c r="W259" s="4"/>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -6434,8 +7264,11 @@
       <c r="R260" s="4"/>
       <c r="S260" s="4"/>
       <c r="T260" s="4"/>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U260" s="4"/>
+      <c r="V260" s="4"/>
+      <c r="W260" s="4"/>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -6456,8 +7289,11 @@
       <c r="R261" s="4"/>
       <c r="S261" s="4"/>
       <c r="T261" s="4"/>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U261" s="4"/>
+      <c r="V261" s="4"/>
+      <c r="W261" s="4"/>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -6478,8 +7314,11 @@
       <c r="R262" s="4"/>
       <c r="S262" s="4"/>
       <c r="T262" s="4"/>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+      <c r="W262" s="4"/>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -6500,8 +7339,11 @@
       <c r="R263" s="4"/>
       <c r="S263" s="4"/>
       <c r="T263" s="4"/>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -6522,8 +7364,11 @@
       <c r="R264" s="4"/>
       <c r="S264" s="4"/>
       <c r="T264" s="4"/>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+      <c r="W264" s="4"/>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -6544,8 +7389,11 @@
       <c r="R265" s="4"/>
       <c r="S265" s="4"/>
       <c r="T265" s="4"/>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+      <c r="W265" s="4"/>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -6566,8 +7414,11 @@
       <c r="R266" s="4"/>
       <c r="S266" s="4"/>
       <c r="T266" s="4"/>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+      <c r="W266" s="4"/>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -6588,8 +7439,11 @@
       <c r="R267" s="4"/>
       <c r="S267" s="4"/>
       <c r="T267" s="4"/>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -6610,8 +7464,11 @@
       <c r="R268" s="4"/>
       <c r="S268" s="4"/>
       <c r="T268" s="4"/>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U268" s="4"/>
+      <c r="V268" s="4"/>
+      <c r="W268" s="4"/>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -6632,8 +7489,11 @@
       <c r="R269" s="4"/>
       <c r="S269" s="4"/>
       <c r="T269" s="4"/>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U269" s="4"/>
+      <c r="V269" s="4"/>
+      <c r="W269" s="4"/>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -6654,8 +7514,11 @@
       <c r="R270" s="4"/>
       <c r="S270" s="4"/>
       <c r="T270" s="4"/>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U270" s="4"/>
+      <c r="V270" s="4"/>
+      <c r="W270" s="4"/>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -6676,8 +7539,11 @@
       <c r="R271" s="4"/>
       <c r="S271" s="4"/>
       <c r="T271" s="4"/>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U271" s="4"/>
+      <c r="V271" s="4"/>
+      <c r="W271" s="4"/>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -6698,8 +7564,11 @@
       <c r="R272" s="4"/>
       <c r="S272" s="4"/>
       <c r="T272" s="4"/>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U272" s="4"/>
+      <c r="V272" s="4"/>
+      <c r="W272" s="4"/>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -6720,8 +7589,11 @@
       <c r="R273" s="4"/>
       <c r="S273" s="4"/>
       <c r="T273" s="4"/>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U273" s="4"/>
+      <c r="V273" s="4"/>
+      <c r="W273" s="4"/>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -6742,8 +7614,11 @@
       <c r="R274" s="4"/>
       <c r="S274" s="4"/>
       <c r="T274" s="4"/>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U274" s="4"/>
+      <c r="V274" s="4"/>
+      <c r="W274" s="4"/>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -6764,8 +7639,11 @@
       <c r="R275" s="4"/>
       <c r="S275" s="4"/>
       <c r="T275" s="4"/>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -6786,8 +7664,11 @@
       <c r="R276" s="4"/>
       <c r="S276" s="4"/>
       <c r="T276" s="4"/>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -6808,8 +7689,11 @@
       <c r="R277" s="4"/>
       <c r="S277" s="4"/>
       <c r="T277" s="4"/>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U277" s="4"/>
+      <c r="V277" s="4"/>
+      <c r="W277" s="4"/>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -6830,8 +7714,11 @@
       <c r="R278" s="4"/>
       <c r="S278" s="4"/>
       <c r="T278" s="4"/>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U278" s="4"/>
+      <c r="V278" s="4"/>
+      <c r="W278" s="4"/>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -6852,8 +7739,11 @@
       <c r="R279" s="4"/>
       <c r="S279" s="4"/>
       <c r="T279" s="4"/>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U279" s="4"/>
+      <c r="V279" s="4"/>
+      <c r="W279" s="4"/>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -6874,8 +7764,11 @@
       <c r="R280" s="4"/>
       <c r="S280" s="4"/>
       <c r="T280" s="4"/>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U280" s="4"/>
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -6896,8 +7789,11 @@
       <c r="R281" s="4"/>
       <c r="S281" s="4"/>
       <c r="T281" s="4"/>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U281" s="4"/>
+      <c r="V281" s="4"/>
+      <c r="W281" s="4"/>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -6918,8 +7814,11 @@
       <c r="R282" s="4"/>
       <c r="S282" s="4"/>
       <c r="T282" s="4"/>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -6940,8 +7839,11 @@
       <c r="R283" s="4"/>
       <c r="S283" s="4"/>
       <c r="T283" s="4"/>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U283" s="4"/>
+      <c r="V283" s="4"/>
+      <c r="W283" s="4"/>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -6962,8 +7864,11 @@
       <c r="R284" s="4"/>
       <c r="S284" s="4"/>
       <c r="T284" s="4"/>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U284" s="4"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -6984,8 +7889,11 @@
       <c r="R285" s="4"/>
       <c r="S285" s="4"/>
       <c r="T285" s="4"/>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -7006,8 +7914,11 @@
       <c r="R286" s="4"/>
       <c r="S286" s="4"/>
       <c r="T286" s="4"/>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -7028,8 +7939,11 @@
       <c r="R287" s="4"/>
       <c r="S287" s="4"/>
       <c r="T287" s="4"/>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U287" s="4"/>
+      <c r="V287" s="4"/>
+      <c r="W287" s="4"/>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -7050,8 +7964,11 @@
       <c r="R288" s="4"/>
       <c r="S288" s="4"/>
       <c r="T288" s="4"/>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -7072,8 +7989,11 @@
       <c r="R289" s="4"/>
       <c r="S289" s="4"/>
       <c r="T289" s="4"/>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U289" s="4"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -7094,8 +8014,11 @@
       <c r="R290" s="4"/>
       <c r="S290" s="4"/>
       <c r="T290" s="4"/>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U290" s="4"/>
+      <c r="V290" s="4"/>
+      <c r="W290" s="4"/>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -7116,8 +8039,11 @@
       <c r="R291" s="4"/>
       <c r="S291" s="4"/>
       <c r="T291" s="4"/>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U291" s="4"/>
+      <c r="V291" s="4"/>
+      <c r="W291" s="4"/>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -7138,8 +8064,11 @@
       <c r="R292" s="4"/>
       <c r="S292" s="4"/>
       <c r="T292" s="4"/>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U292" s="4"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -7160,8 +8089,11 @@
       <c r="R293" s="4"/>
       <c r="S293" s="4"/>
       <c r="T293" s="4"/>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U293" s="4"/>
+      <c r="V293" s="4"/>
+      <c r="W293" s="4"/>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -7182,8 +8114,11 @@
       <c r="R294" s="4"/>
       <c r="S294" s="4"/>
       <c r="T294" s="4"/>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U294" s="4"/>
+      <c r="V294" s="4"/>
+      <c r="W294" s="4"/>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -7204,8 +8139,11 @@
       <c r="R295" s="4"/>
       <c r="S295" s="4"/>
       <c r="T295" s="4"/>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U295" s="4"/>
+      <c r="V295" s="4"/>
+      <c r="W295" s="4"/>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -7226,8 +8164,11 @@
       <c r="R296" s="4"/>
       <c r="S296" s="4"/>
       <c r="T296" s="4"/>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U296" s="4"/>
+      <c r="V296" s="4"/>
+      <c r="W296" s="4"/>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -7248,8 +8189,11 @@
       <c r="R297" s="4"/>
       <c r="S297" s="4"/>
       <c r="T297" s="4"/>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U297" s="4"/>
+      <c r="V297" s="4"/>
+      <c r="W297" s="4"/>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -7270,8 +8214,11 @@
       <c r="R298" s="4"/>
       <c r="S298" s="4"/>
       <c r="T298" s="4"/>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U298" s="4"/>
+      <c r="V298" s="4"/>
+      <c r="W298" s="4"/>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -7292,8 +8239,11 @@
       <c r="R299" s="4"/>
       <c r="S299" s="4"/>
       <c r="T299" s="4"/>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U299" s="4"/>
+      <c r="V299" s="4"/>
+      <c r="W299" s="4"/>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -7314,8 +8264,11 @@
       <c r="R300" s="4"/>
       <c r="S300" s="4"/>
       <c r="T300" s="4"/>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U300" s="4"/>
+      <c r="V300" s="4"/>
+      <c r="W300" s="4"/>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -7336,8 +8289,11 @@
       <c r="R301" s="4"/>
       <c r="S301" s="4"/>
       <c r="T301" s="4"/>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U301" s="4"/>
+      <c r="V301" s="4"/>
+      <c r="W301" s="4"/>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -7358,8 +8314,11 @@
       <c r="R302" s="4"/>
       <c r="S302" s="4"/>
       <c r="T302" s="4"/>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U302" s="4"/>
+      <c r="V302" s="4"/>
+      <c r="W302" s="4"/>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -7380,8 +8339,11 @@
       <c r="R303" s="4"/>
       <c r="S303" s="4"/>
       <c r="T303" s="4"/>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U303" s="4"/>
+      <c r="V303" s="4"/>
+      <c r="W303" s="4"/>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -7402,8 +8364,11 @@
       <c r="R304" s="4"/>
       <c r="S304" s="4"/>
       <c r="T304" s="4"/>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U304" s="4"/>
+      <c r="V304" s="4"/>
+      <c r="W304" s="4"/>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -7424,8 +8389,11 @@
       <c r="R305" s="4"/>
       <c r="S305" s="4"/>
       <c r="T305" s="4"/>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U305" s="4"/>
+      <c r="V305" s="4"/>
+      <c r="W305" s="4"/>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -7446,8 +8414,11 @@
       <c r="R306" s="4"/>
       <c r="S306" s="4"/>
       <c r="T306" s="4"/>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U306" s="4"/>
+      <c r="V306" s="4"/>
+      <c r="W306" s="4"/>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -7468,8 +8439,11 @@
       <c r="R307" s="4"/>
       <c r="S307" s="4"/>
       <c r="T307" s="4"/>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U307" s="4"/>
+      <c r="V307" s="4"/>
+      <c r="W307" s="4"/>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -7490,8 +8464,11 @@
       <c r="R308" s="4"/>
       <c r="S308" s="4"/>
       <c r="T308" s="4"/>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U308" s="4"/>
+      <c r="V308" s="4"/>
+      <c r="W308" s="4"/>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -7512,8 +8489,11 @@
       <c r="R309" s="4"/>
       <c r="S309" s="4"/>
       <c r="T309" s="4"/>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U309" s="4"/>
+      <c r="V309" s="4"/>
+      <c r="W309" s="4"/>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -7534,8 +8514,11 @@
       <c r="R310" s="4"/>
       <c r="S310" s="4"/>
       <c r="T310" s="4"/>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U310" s="4"/>
+      <c r="V310" s="4"/>
+      <c r="W310" s="4"/>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -7556,8 +8539,11 @@
       <c r="R311" s="4"/>
       <c r="S311" s="4"/>
       <c r="T311" s="4"/>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U311" s="4"/>
+      <c r="V311" s="4"/>
+      <c r="W311" s="4"/>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -7578,8 +8564,11 @@
       <c r="R312" s="4"/>
       <c r="S312" s="4"/>
       <c r="T312" s="4"/>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U312" s="4"/>
+      <c r="V312" s="4"/>
+      <c r="W312" s="4"/>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -7600,8 +8589,11 @@
       <c r="R313" s="4"/>
       <c r="S313" s="4"/>
       <c r="T313" s="4"/>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U313" s="4"/>
+      <c r="V313" s="4"/>
+      <c r="W313" s="4"/>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -7622,8 +8614,11 @@
       <c r="R314" s="4"/>
       <c r="S314" s="4"/>
       <c r="T314" s="4"/>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U314" s="4"/>
+      <c r="V314" s="4"/>
+      <c r="W314" s="4"/>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -7644,8 +8639,11 @@
       <c r="R315" s="4"/>
       <c r="S315" s="4"/>
       <c r="T315" s="4"/>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U315" s="4"/>
+      <c r="V315" s="4"/>
+      <c r="W315" s="4"/>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -7666,8 +8664,11 @@
       <c r="R316" s="4"/>
       <c r="S316" s="4"/>
       <c r="T316" s="4"/>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U316" s="4"/>
+      <c r="V316" s="4"/>
+      <c r="W316" s="4"/>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -7688,8 +8689,11 @@
       <c r="R317" s="4"/>
       <c r="S317" s="4"/>
       <c r="T317" s="4"/>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U317" s="4"/>
+      <c r="V317" s="4"/>
+      <c r="W317" s="4"/>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -7710,8 +8714,11 @@
       <c r="R318" s="4"/>
       <c r="S318" s="4"/>
       <c r="T318" s="4"/>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U318" s="4"/>
+      <c r="V318" s="4"/>
+      <c r="W318" s="4"/>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -7732,8 +8739,11 @@
       <c r="R319" s="4"/>
       <c r="S319" s="4"/>
       <c r="T319" s="4"/>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U319" s="4"/>
+      <c r="V319" s="4"/>
+      <c r="W319" s="4"/>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -7754,8 +8764,11 @@
       <c r="R320" s="4"/>
       <c r="S320" s="4"/>
       <c r="T320" s="4"/>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U320" s="4"/>
+      <c r="V320" s="4"/>
+      <c r="W320" s="4"/>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -7776,8 +8789,11 @@
       <c r="R321" s="4"/>
       <c r="S321" s="4"/>
       <c r="T321" s="4"/>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U321" s="4"/>
+      <c r="V321" s="4"/>
+      <c r="W321" s="4"/>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -7798,8 +8814,11 @@
       <c r="R322" s="4"/>
       <c r="S322" s="4"/>
       <c r="T322" s="4"/>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U322" s="4"/>
+      <c r="V322" s="4"/>
+      <c r="W322" s="4"/>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -7820,8 +8839,11 @@
       <c r="R323" s="4"/>
       <c r="S323" s="4"/>
       <c r="T323" s="4"/>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U323" s="4"/>
+      <c r="V323" s="4"/>
+      <c r="W323" s="4"/>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -7842,8 +8864,11 @@
       <c r="R324" s="4"/>
       <c r="S324" s="4"/>
       <c r="T324" s="4"/>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U324" s="4"/>
+      <c r="V324" s="4"/>
+      <c r="W324" s="4"/>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -7864,8 +8889,11 @@
       <c r="R325" s="4"/>
       <c r="S325" s="4"/>
       <c r="T325" s="4"/>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U325" s="4"/>
+      <c r="V325" s="4"/>
+      <c r="W325" s="4"/>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -7886,8 +8914,11 @@
       <c r="R326" s="4"/>
       <c r="S326" s="4"/>
       <c r="T326" s="4"/>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U326" s="4"/>
+      <c r="V326" s="4"/>
+      <c r="W326" s="4"/>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -7908,8 +8939,11 @@
       <c r="R327" s="4"/>
       <c r="S327" s="4"/>
       <c r="T327" s="4"/>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U327" s="4"/>
+      <c r="V327" s="4"/>
+      <c r="W327" s="4"/>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -7930,8 +8964,11 @@
       <c r="R328" s="4"/>
       <c r="S328" s="4"/>
       <c r="T328" s="4"/>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U328" s="4"/>
+      <c r="V328" s="4"/>
+      <c r="W328" s="4"/>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -7952,8 +8989,11 @@
       <c r="R329" s="4"/>
       <c r="S329" s="4"/>
       <c r="T329" s="4"/>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U329" s="4"/>
+      <c r="V329" s="4"/>
+      <c r="W329" s="4"/>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -7974,8 +9014,11 @@
       <c r="R330" s="4"/>
       <c r="S330" s="4"/>
       <c r="T330" s="4"/>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U330" s="4"/>
+      <c r="V330" s="4"/>
+      <c r="W330" s="4"/>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -7996,8 +9039,11 @@
       <c r="R331" s="4"/>
       <c r="S331" s="4"/>
       <c r="T331" s="4"/>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U331" s="4"/>
+      <c r="V331" s="4"/>
+      <c r="W331" s="4"/>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -8018,8 +9064,11 @@
       <c r="R332" s="4"/>
       <c r="S332" s="4"/>
       <c r="T332" s="4"/>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U332" s="4"/>
+      <c r="V332" s="4"/>
+      <c r="W332" s="4"/>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -8040,8 +9089,11 @@
       <c r="R333" s="4"/>
       <c r="S333" s="4"/>
       <c r="T333" s="4"/>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U333" s="4"/>
+      <c r="V333" s="4"/>
+      <c r="W333" s="4"/>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -8062,8 +9114,11 @@
       <c r="R334" s="4"/>
       <c r="S334" s="4"/>
       <c r="T334" s="4"/>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U334" s="4"/>
+      <c r="V334" s="4"/>
+      <c r="W334" s="4"/>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -8084,8 +9139,11 @@
       <c r="R335" s="4"/>
       <c r="S335" s="4"/>
       <c r="T335" s="4"/>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U335" s="4"/>
+      <c r="V335" s="4"/>
+      <c r="W335" s="4"/>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -8106,8 +9164,11 @@
       <c r="R336" s="4"/>
       <c r="S336" s="4"/>
       <c r="T336" s="4"/>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U336" s="4"/>
+      <c r="V336" s="4"/>
+      <c r="W336" s="4"/>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -8128,8 +9189,11 @@
       <c r="R337" s="4"/>
       <c r="S337" s="4"/>
       <c r="T337" s="4"/>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U337" s="4"/>
+      <c r="V337" s="4"/>
+      <c r="W337" s="4"/>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -8150,8 +9214,11 @@
       <c r="R338" s="4"/>
       <c r="S338" s="4"/>
       <c r="T338" s="4"/>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U338" s="4"/>
+      <c r="V338" s="4"/>
+      <c r="W338" s="4"/>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -8172,8 +9239,11 @@
       <c r="R339" s="4"/>
       <c r="S339" s="4"/>
       <c r="T339" s="4"/>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U339" s="4"/>
+      <c r="V339" s="4"/>
+      <c r="W339" s="4"/>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -8194,8 +9264,11 @@
       <c r="R340" s="4"/>
       <c r="S340" s="4"/>
       <c r="T340" s="4"/>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U340" s="4"/>
+      <c r="V340" s="4"/>
+      <c r="W340" s="4"/>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -8216,8 +9289,11 @@
       <c r="R341" s="4"/>
       <c r="S341" s="4"/>
       <c r="T341" s="4"/>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U341" s="4"/>
+      <c r="V341" s="4"/>
+      <c r="W341" s="4"/>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -8238,8 +9314,11 @@
       <c r="R342" s="4"/>
       <c r="S342" s="4"/>
       <c r="T342" s="4"/>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U342" s="4"/>
+      <c r="V342" s="4"/>
+      <c r="W342" s="4"/>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -8260,8 +9339,11 @@
       <c r="R343" s="4"/>
       <c r="S343" s="4"/>
       <c r="T343" s="4"/>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U343" s="4"/>
+      <c r="V343" s="4"/>
+      <c r="W343" s="4"/>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -8282,8 +9364,11 @@
       <c r="R344" s="4"/>
       <c r="S344" s="4"/>
       <c r="T344" s="4"/>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U344" s="4"/>
+      <c r="V344" s="4"/>
+      <c r="W344" s="4"/>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -8304,8 +9389,11 @@
       <c r="R345" s="4"/>
       <c r="S345" s="4"/>
       <c r="T345" s="4"/>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U345" s="4"/>
+      <c r="V345" s="4"/>
+      <c r="W345" s="4"/>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -8326,8 +9414,11 @@
       <c r="R346" s="4"/>
       <c r="S346" s="4"/>
       <c r="T346" s="4"/>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U346" s="4"/>
+      <c r="V346" s="4"/>
+      <c r="W346" s="4"/>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -8348,8 +9439,11 @@
       <c r="R347" s="4"/>
       <c r="S347" s="4"/>
       <c r="T347" s="4"/>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U347" s="4"/>
+      <c r="V347" s="4"/>
+      <c r="W347" s="4"/>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -8370,8 +9464,11 @@
       <c r="R348" s="4"/>
       <c r="S348" s="4"/>
       <c r="T348" s="4"/>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U348" s="4"/>
+      <c r="V348" s="4"/>
+      <c r="W348" s="4"/>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -8392,8 +9489,11 @@
       <c r="R349" s="4"/>
       <c r="S349" s="4"/>
       <c r="T349" s="4"/>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U349" s="4"/>
+      <c r="V349" s="4"/>
+      <c r="W349" s="4"/>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -8414,8 +9514,11 @@
       <c r="R350" s="4"/>
       <c r="S350" s="4"/>
       <c r="T350" s="4"/>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U350" s="4"/>
+      <c r="V350" s="4"/>
+      <c r="W350" s="4"/>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -8436,8 +9539,11 @@
       <c r="R351" s="4"/>
       <c r="S351" s="4"/>
       <c r="T351" s="4"/>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U351" s="4"/>
+      <c r="V351" s="4"/>
+      <c r="W351" s="4"/>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -8458,8 +9564,11 @@
       <c r="R352" s="4"/>
       <c r="S352" s="4"/>
       <c r="T352" s="4"/>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U352" s="4"/>
+      <c r="V352" s="4"/>
+      <c r="W352" s="4"/>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -8480,8 +9589,11 @@
       <c r="R353" s="4"/>
       <c r="S353" s="4"/>
       <c r="T353" s="4"/>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U353" s="4"/>
+      <c r="V353" s="4"/>
+      <c r="W353" s="4"/>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -8502,8 +9614,11 @@
       <c r="R354" s="4"/>
       <c r="S354" s="4"/>
       <c r="T354" s="4"/>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U354" s="4"/>
+      <c r="V354" s="4"/>
+      <c r="W354" s="4"/>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -8524,8 +9639,11 @@
       <c r="R355" s="4"/>
       <c r="S355" s="4"/>
       <c r="T355" s="4"/>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U355" s="4"/>
+      <c r="V355" s="4"/>
+      <c r="W355" s="4"/>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -8546,8 +9664,11 @@
       <c r="R356" s="4"/>
       <c r="S356" s="4"/>
       <c r="T356" s="4"/>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U356" s="4"/>
+      <c r="V356" s="4"/>
+      <c r="W356" s="4"/>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -8568,8 +9689,11 @@
       <c r="R357" s="4"/>
       <c r="S357" s="4"/>
       <c r="T357" s="4"/>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U357" s="4"/>
+      <c r="V357" s="4"/>
+      <c r="W357" s="4"/>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -8590,8 +9714,11 @@
       <c r="R358" s="4"/>
       <c r="S358" s="4"/>
       <c r="T358" s="4"/>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U358" s="4"/>
+      <c r="V358" s="4"/>
+      <c r="W358" s="4"/>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -8612,8 +9739,11 @@
       <c r="R359" s="4"/>
       <c r="S359" s="4"/>
       <c r="T359" s="4"/>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U359" s="4"/>
+      <c r="V359" s="4"/>
+      <c r="W359" s="4"/>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -8634,8 +9764,11 @@
       <c r="R360" s="4"/>
       <c r="S360" s="4"/>
       <c r="T360" s="4"/>
-    </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U360" s="4"/>
+      <c r="V360" s="4"/>
+      <c r="W360" s="4"/>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -8656,8 +9789,11 @@
       <c r="R361" s="4"/>
       <c r="S361" s="4"/>
       <c r="T361" s="4"/>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U361" s="4"/>
+      <c r="V361" s="4"/>
+      <c r="W361" s="4"/>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -8678,8 +9814,11 @@
       <c r="R362" s="5"/>
       <c r="S362" s="5"/>
       <c r="T362" s="5"/>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U362" s="5"/>
+      <c r="V362" s="5"/>
+      <c r="W362" s="5"/>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -8700,6 +9839,9 @@
       <c r="R363" s="5"/>
       <c r="S363" s="5"/>
       <c r="T363" s="5"/>
+      <c r="U363" s="5"/>
+      <c r="V363" s="5"/>
+      <c r="W363" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ports.xlsx
+++ b/Ports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Part</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Shooter Angle</t>
-  </si>
-  <si>
-    <t>Whinch</t>
   </si>
   <si>
     <t>Compressor</t>
@@ -500,7 +497,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -527,10 +524,10 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -538,19 +535,19 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -558,19 +555,19 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -578,132 +575,132 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6"/>
     </row>

--- a/Ports.xlsx
+++ b/Ports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Part</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>Winch</t>
+  </si>
+  <si>
+    <t>Solenoid 9</t>
+  </si>
+  <si>
+    <t>Solenoid 10</t>
+  </si>
+  <si>
+    <t>Super Shifters</t>
+  </si>
+  <si>
+    <t>Sub-Description</t>
+  </si>
+  <si>
+    <t>Motor Engage</t>
+  </si>
+  <si>
+    <t>Ratchet Engage</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -175,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,6 +221,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,24 +524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,8 +551,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -533,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -542,7 +575,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -553,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -562,7 +595,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -573,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -584,7 +617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -595,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -606,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -617,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -628,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -638,8 +671,11 @@
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -647,8 +683,9 @@
         <v>26</v>
       </c>
       <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -656,8 +693,11 @@
         <v>27</v>
       </c>
       <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -665,8 +705,9 @@
         <v>28</v>
       </c>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -677,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -686,30 +727,63 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C16:C19"/>
+  <mergeCells count="9">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
